--- a/Analisis Estructural/cross exel/Ejemplo 3 de clase.xlsx
+++ b/Analisis Estructural/cross exel/Ejemplo 3 de clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Primer-Semestre-24\Analisis Estructural\cross exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA612B6-68FC-4F18-9A8E-97C127CC6857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CDCB9E-1E57-461D-A0E8-68A40CA273B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6662C7B-FB84-422B-8C7E-EDC12C964111}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,30 +591,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,67 +676,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1305,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE86CC2-052B-4F6A-8E07-927D87597AFB}">
   <dimension ref="A6:CR69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CD8" sqref="CD8:CF8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46:Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,84 +1318,84 @@
   </cols>
   <sheetData>
     <row r="6" spans="17:96" x14ac:dyDescent="0.3">
-      <c r="BP6" s="58" t="s">
+      <c r="BP6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="BQ6" s="59"/>
-      <c r="BR6" s="59"/>
-      <c r="BS6" s="59"/>
-      <c r="BT6" s="59"/>
-      <c r="BU6" s="59"/>
-      <c r="BV6" s="59"/>
-      <c r="BW6" s="59"/>
-      <c r="BX6" s="59"/>
-      <c r="BY6" s="59"/>
-      <c r="BZ6" s="59"/>
-      <c r="CA6" s="59"/>
-      <c r="CB6" s="59"/>
-      <c r="CC6" s="59"/>
-      <c r="CD6" s="59"/>
-      <c r="CE6" s="59"/>
-      <c r="CF6" s="59"/>
-      <c r="CG6" s="59"/>
-      <c r="CH6" s="59"/>
-      <c r="CI6" s="59"/>
-      <c r="CJ6" s="59"/>
-      <c r="CK6" s="59"/>
-      <c r="CL6" s="59"/>
-      <c r="CM6" s="59"/>
-      <c r="CN6" s="59"/>
-      <c r="CO6" s="59"/>
-      <c r="CP6" s="59"/>
-      <c r="CQ6" s="59"/>
-      <c r="CR6" s="59"/>
+      <c r="BQ6" s="55"/>
+      <c r="BR6" s="55"/>
+      <c r="BS6" s="55"/>
+      <c r="BT6" s="55"/>
+      <c r="BU6" s="55"/>
+      <c r="BV6" s="55"/>
+      <c r="BW6" s="55"/>
+      <c r="BX6" s="55"/>
+      <c r="BY6" s="55"/>
+      <c r="BZ6" s="55"/>
+      <c r="CA6" s="55"/>
+      <c r="CB6" s="55"/>
+      <c r="CC6" s="55"/>
+      <c r="CD6" s="55"/>
+      <c r="CE6" s="55"/>
+      <c r="CF6" s="55"/>
+      <c r="CG6" s="55"/>
+      <c r="CH6" s="55"/>
+      <c r="CI6" s="55"/>
+      <c r="CJ6" s="55"/>
+      <c r="CK6" s="55"/>
+      <c r="CL6" s="55"/>
+      <c r="CM6" s="55"/>
+      <c r="CN6" s="55"/>
+      <c r="CO6" s="55"/>
+      <c r="CP6" s="55"/>
+      <c r="CQ6" s="55"/>
+      <c r="CR6" s="55"/>
     </row>
     <row r="7" spans="17:96" x14ac:dyDescent="0.3">
-      <c r="BP7" s="60"/>
-      <c r="BQ7" s="61"/>
-      <c r="BR7" s="61"/>
-      <c r="BS7" s="61"/>
-      <c r="BT7" s="62"/>
-      <c r="BU7" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="61"/>
-      <c r="BW7" s="62"/>
-      <c r="BX7" s="63" t="s">
+      <c r="BP7" s="46"/>
+      <c r="BQ7" s="44"/>
+      <c r="BR7" s="44"/>
+      <c r="BS7" s="44"/>
+      <c r="BT7" s="45"/>
+      <c r="BU7" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="44"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="BY7" s="61"/>
-      <c r="BZ7" s="62"/>
-      <c r="CA7" s="63" t="s">
+      <c r="BY7" s="44"/>
+      <c r="BZ7" s="45"/>
+      <c r="CA7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="CB7" s="61"/>
-      <c r="CC7" s="62"/>
-      <c r="CD7" s="63" t="s">
+      <c r="CB7" s="44"/>
+      <c r="CC7" s="45"/>
+      <c r="CD7" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="CE7" s="61"/>
-      <c r="CF7" s="62"/>
-      <c r="CG7" s="63" t="s">
+      <c r="CE7" s="44"/>
+      <c r="CF7" s="45"/>
+      <c r="CG7" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="CH7" s="61"/>
-      <c r="CI7" s="62"/>
-      <c r="CJ7" s="63" t="s">
+      <c r="CH7" s="44"/>
+      <c r="CI7" s="45"/>
+      <c r="CJ7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="CK7" s="61"/>
-      <c r="CL7" s="62"/>
-      <c r="CM7" s="63" t="s">
+      <c r="CK7" s="44"/>
+      <c r="CL7" s="45"/>
+      <c r="CM7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="CN7" s="61"/>
-      <c r="CO7" s="62"/>
-      <c r="CP7" s="63" t="s">
+      <c r="CN7" s="44"/>
+      <c r="CO7" s="45"/>
+      <c r="CP7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="CQ7" s="61"/>
-      <c r="CR7" s="62"/>
+      <c r="CQ7" s="44"/>
+      <c r="CR7" s="45"/>
     </row>
     <row r="8" spans="17:96" x14ac:dyDescent="0.3">
       <c r="Y8" s="37"/>
@@ -1417,70 +1410,70 @@
       <c r="BF8" t="s">
         <v>21</v>
       </c>
-      <c r="BP8" s="67" t="s">
+      <c r="BP8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BQ8" s="61"/>
-      <c r="BR8" s="61"/>
-      <c r="BS8" s="61"/>
-      <c r="BT8" s="62"/>
-      <c r="BU8" s="60">
+      <c r="BQ8" s="44"/>
+      <c r="BR8" s="44"/>
+      <c r="BS8" s="44"/>
+      <c r="BT8" s="45"/>
+      <c r="BU8" s="46">
         <f>-(P37*10*10/12)</f>
         <v>0</v>
       </c>
-      <c r="BV8" s="61"/>
-      <c r="BW8" s="62"/>
-      <c r="BX8" s="60">
+      <c r="BV8" s="44"/>
+      <c r="BW8" s="45"/>
+      <c r="BX8" s="46">
         <f>-(BU8)</f>
         <v>0</v>
       </c>
-      <c r="BY8" s="61"/>
-      <c r="BZ8" s="62"/>
-      <c r="CA8" s="60">
+      <c r="BY8" s="44"/>
+      <c r="BZ8" s="45"/>
+      <c r="CA8" s="46">
         <f>-(W37*10*10/12)</f>
         <v>-41.666666666666664</v>
       </c>
-      <c r="CB8" s="61"/>
-      <c r="CC8" s="62"/>
-      <c r="CD8" s="60">
+      <c r="CB8" s="44"/>
+      <c r="CC8" s="45"/>
+      <c r="CD8" s="46">
         <f>-(CA8)</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="CE8" s="61"/>
-      <c r="CF8" s="62"/>
-      <c r="CG8" s="60">
+      <c r="CE8" s="44"/>
+      <c r="CF8" s="45"/>
+      <c r="CG8" s="46">
         <f>-(AD37*10*10/12)</f>
         <v>0</v>
       </c>
-      <c r="CH8" s="61"/>
-      <c r="CI8" s="62"/>
-      <c r="CJ8" s="60">
+      <c r="CH8" s="44"/>
+      <c r="CI8" s="45"/>
+      <c r="CJ8" s="46">
         <f>-(CG8)</f>
         <v>0</v>
       </c>
-      <c r="CK8" s="61"/>
-      <c r="CL8" s="62"/>
-      <c r="CM8" s="60" t="e">
+      <c r="CK8" s="44"/>
+      <c r="CL8" s="45"/>
+      <c r="CM8" s="46" t="e">
         <f>-(#REF!*#REF!*#REF!)/12</f>
         <v>#REF!</v>
       </c>
-      <c r="CN8" s="61"/>
-      <c r="CO8" s="62"/>
-      <c r="CP8" s="60" t="e">
+      <c r="CN8" s="44"/>
+      <c r="CO8" s="45"/>
+      <c r="CP8" s="46" t="e">
         <f>-(CM8)</f>
         <v>#REF!</v>
       </c>
-      <c r="CQ8" s="61"/>
-      <c r="CR8" s="62"/>
+      <c r="CQ8" s="44"/>
+      <c r="CR8" s="45"/>
     </row>
     <row r="9" spans="17:96" x14ac:dyDescent="0.3">
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
       <c r="AA9" s="1"/>
@@ -1493,123 +1486,123 @@
       <c r="BF9" t="s">
         <v>22</v>
       </c>
-      <c r="BP9" s="64" t="s">
+      <c r="BP9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="BQ9" s="61"/>
-      <c r="BR9" s="61"/>
-      <c r="BS9" s="61"/>
-      <c r="BT9" s="62"/>
-      <c r="BU9" s="60">
+      <c r="BQ9" s="44"/>
+      <c r="BR9" s="44"/>
+      <c r="BS9" s="44"/>
+      <c r="BT9" s="45"/>
+      <c r="BU9" s="46">
         <f>-(P37*10/8)</f>
         <v>0</v>
       </c>
-      <c r="BV9" s="61"/>
-      <c r="BW9" s="62"/>
-      <c r="BX9" s="60">
+      <c r="BV9" s="44"/>
+      <c r="BW9" s="45"/>
+      <c r="BX9" s="46">
         <f>-(BU9)</f>
         <v>0</v>
       </c>
-      <c r="BY9" s="65"/>
-      <c r="BZ9" s="66"/>
-      <c r="CA9" s="60">
+      <c r="BY9" s="48"/>
+      <c r="BZ9" s="49"/>
+      <c r="CA9" s="46">
         <f>-(W37*10/8)</f>
         <v>-6.25</v>
       </c>
-      <c r="CB9" s="61"/>
-      <c r="CC9" s="62"/>
-      <c r="CD9" s="60">
+      <c r="CB9" s="44"/>
+      <c r="CC9" s="45"/>
+      <c r="CD9" s="46">
         <f>-(CA9)</f>
         <v>6.25</v>
       </c>
-      <c r="CE9" s="65"/>
-      <c r="CF9" s="66"/>
-      <c r="CG9" s="60">
+      <c r="CE9" s="48"/>
+      <c r="CF9" s="49"/>
+      <c r="CG9" s="46">
         <f>-(Z37*10/8)</f>
         <v>0</v>
       </c>
-      <c r="CH9" s="61"/>
-      <c r="CI9" s="62"/>
-      <c r="CJ9" s="60">
+      <c r="CH9" s="44"/>
+      <c r="CI9" s="45"/>
+      <c r="CJ9" s="46">
         <f>-(CG9)</f>
         <v>0</v>
       </c>
-      <c r="CK9" s="65"/>
-      <c r="CL9" s="66"/>
-      <c r="CM9" s="60" t="e">
+      <c r="CK9" s="48"/>
+      <c r="CL9" s="49"/>
+      <c r="CM9" s="46" t="e">
         <f>-(#REF!*#REF!)/8</f>
         <v>#REF!</v>
       </c>
-      <c r="CN9" s="61"/>
-      <c r="CO9" s="62"/>
-      <c r="CP9" s="60" t="e">
+      <c r="CN9" s="44"/>
+      <c r="CO9" s="45"/>
+      <c r="CP9" s="46" t="e">
         <f>-(CM9)</f>
         <v>#REF!</v>
       </c>
-      <c r="CQ9" s="61"/>
-      <c r="CR9" s="62"/>
+      <c r="CQ9" s="44"/>
+      <c r="CR9" s="45"/>
     </row>
     <row r="10" spans="17:96" x14ac:dyDescent="0.3">
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="1"/>
       <c r="BF10" t="s">
         <v>23</v>
       </c>
-      <c r="BP10" s="64" t="s">
+      <c r="BP10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="BQ10" s="61"/>
-      <c r="BR10" s="61"/>
-      <c r="BS10" s="61"/>
-      <c r="BT10" s="62"/>
-      <c r="BU10" s="68">
-        <v>0</v>
-      </c>
-      <c r="BV10" s="61"/>
-      <c r="BW10" s="62"/>
-      <c r="BX10" s="68">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="61"/>
-      <c r="BZ10" s="62"/>
-      <c r="CA10" s="68">
+      <c r="BQ10" s="44"/>
+      <c r="BR10" s="44"/>
+      <c r="BS10" s="44"/>
+      <c r="BT10" s="45"/>
+      <c r="BU10" s="43">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="44"/>
+      <c r="BW10" s="45"/>
+      <c r="BX10" s="43">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="44"/>
+      <c r="BZ10" s="45"/>
+      <c r="CA10" s="43">
         <v>-6</v>
       </c>
-      <c r="CB10" s="61"/>
-      <c r="CC10" s="62"/>
-      <c r="CD10" s="68">
+      <c r="CB10" s="44"/>
+      <c r="CC10" s="45"/>
+      <c r="CD10" s="43">
         <v>9</v>
       </c>
-      <c r="CE10" s="61"/>
-      <c r="CF10" s="62"/>
-      <c r="CG10" s="68">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="61"/>
-      <c r="CI10" s="62"/>
-      <c r="CJ10" s="68">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="61"/>
-      <c r="CL10" s="62"/>
-      <c r="CM10" s="68">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="61"/>
-      <c r="CO10" s="62"/>
-      <c r="CP10" s="68">
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="61"/>
-      <c r="CR10" s="62"/>
+      <c r="CE10" s="44"/>
+      <c r="CF10" s="45"/>
+      <c r="CG10" s="43">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="44"/>
+      <c r="CI10" s="45"/>
+      <c r="CJ10" s="43">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="44"/>
+      <c r="CL10" s="45"/>
+      <c r="CM10" s="43">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="44"/>
+      <c r="CO10" s="45"/>
+      <c r="CP10" s="43">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="44"/>
+      <c r="CR10" s="45"/>
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.3">
       <c r="O23" s="17" t="s">
@@ -1658,30 +1651,6 @@
       <c r="CR23" s="9"/>
     </row>
     <row r="24" spans="1:96" x14ac:dyDescent="0.3">
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="71"/>
-      <c r="AT24" s="71"/>
-      <c r="AU24" s="71"/>
-      <c r="AV24" s="71"/>
-      <c r="AW24" s="71"/>
-      <c r="AX24" s="71"/>
-      <c r="AY24" s="71"/>
-      <c r="AZ24" s="71"/>
-      <c r="BA24" s="71"/>
-      <c r="BB24" s="71"/>
-      <c r="BC24" s="71"/>
-      <c r="BD24" s="71"/>
-      <c r="BE24" s="71"/>
-      <c r="BF24" s="71"/>
-      <c r="BG24" s="71"/>
-      <c r="BH24" s="71"/>
-      <c r="BI24" s="71"/>
-      <c r="BJ24" s="71"/>
-      <c r="BK24" s="71"/>
-      <c r="BL24" s="71"/>
-      <c r="BM24" s="71"/>
-      <c r="BN24" s="71"/>
-      <c r="BO24" s="72"/>
       <c r="BP24" s="8"/>
       <c r="BQ24" s="9"/>
       <c r="BR24" s="9"/>
@@ -1737,30 +1706,6 @@
       <c r="AH25" s="37"/>
       <c r="AI25" s="37"/>
       <c r="AJ25" s="37"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="71"/>
-      <c r="AT25" s="71"/>
-      <c r="AU25" s="71"/>
-      <c r="AV25" s="71"/>
-      <c r="AW25" s="71"/>
-      <c r="AX25" s="71"/>
-      <c r="AY25" s="71"/>
-      <c r="AZ25" s="71"/>
-      <c r="BA25" s="71"/>
-      <c r="BB25" s="71"/>
-      <c r="BC25" s="71"/>
-      <c r="BD25" s="71"/>
-      <c r="BE25" s="71"/>
-      <c r="BF25" s="71"/>
-      <c r="BG25" s="71"/>
-      <c r="BH25" s="71"/>
-      <c r="BI25" s="71"/>
-      <c r="BJ25" s="71"/>
-      <c r="BK25" s="71"/>
-      <c r="BL25" s="71"/>
-      <c r="BM25" s="71"/>
-      <c r="BN25" s="71"/>
-      <c r="BO25" s="72"/>
       <c r="BP25" s="13"/>
       <c r="BQ25" s="9"/>
       <c r="BR25" s="9"/>
@@ -1827,30 +1772,6 @@
       <c r="AN26" s="37"/>
       <c r="AO26" s="37"/>
       <c r="AP26" s="37"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="71"/>
-      <c r="AT26" s="71"/>
-      <c r="AU26" s="71"/>
-      <c r="AV26" s="71"/>
-      <c r="AW26" s="71"/>
-      <c r="AX26" s="71"/>
-      <c r="AY26" s="71"/>
-      <c r="AZ26" s="71"/>
-      <c r="BA26" s="71"/>
-      <c r="BB26" s="71"/>
-      <c r="BC26" s="71"/>
-      <c r="BD26" s="71"/>
-      <c r="BE26" s="71"/>
-      <c r="BF26" s="71"/>
-      <c r="BG26" s="71"/>
-      <c r="BH26" s="71"/>
-      <c r="BI26" s="71"/>
-      <c r="BJ26" s="71"/>
-      <c r="BK26" s="71"/>
-      <c r="BL26" s="71"/>
-      <c r="BM26" s="71"/>
-      <c r="BN26" s="71"/>
-      <c r="BO26" s="72"/>
       <c r="BP26" s="11"/>
       <c r="BQ26" s="9"/>
       <c r="BR26" s="9"/>
@@ -1888,65 +1809,41 @@
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
       <c r="O27" s="18"/>
-      <c r="P27" s="56">
+      <c r="P27" s="52">
         <v>3</v>
       </c>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
       <c r="V27" s="25"/>
-      <c r="W27" s="56">
+      <c r="W27" s="52">
         <v>1</v>
       </c>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
       <c r="AC27" s="25"/>
-      <c r="AD27" s="56">
+      <c r="AD27" s="52">
         <v>3</v>
       </c>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="25"/>
-      <c r="AK27" s="56">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AR27" s="69"/>
-      <c r="AS27" s="71"/>
-      <c r="AT27" s="71"/>
-      <c r="AU27" s="71"/>
-      <c r="AV27" s="71"/>
-      <c r="AW27" s="71"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="71"/>
-      <c r="AZ27" s="71"/>
-      <c r="BA27" s="71"/>
-      <c r="BB27" s="71"/>
-      <c r="BC27" s="71"/>
-      <c r="BD27" s="71"/>
-      <c r="BE27" s="71"/>
-      <c r="BF27" s="71"/>
-      <c r="BG27" s="71"/>
-      <c r="BH27" s="71"/>
-      <c r="BI27" s="71"/>
-      <c r="BJ27" s="71"/>
-      <c r="BK27" s="71"/>
-      <c r="BL27" s="71"/>
-      <c r="BM27" s="71"/>
-      <c r="BN27" s="71"/>
-      <c r="BO27" s="72"/>
+      <c r="AK27" s="52">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
       <c r="BP27" s="10"/>
       <c r="BQ27" s="9"/>
       <c r="BR27" s="9"/>
@@ -1984,65 +1881,41 @@
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="57">
+      <c r="P28" s="51">
         <v>3</v>
       </c>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
       <c r="V28" s="26"/>
-      <c r="W28" s="57">
+      <c r="W28" s="51">
         <v>6</v>
       </c>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
       <c r="AC28" s="26"/>
-      <c r="AD28" s="57">
+      <c r="AD28" s="51">
         <v>3</v>
       </c>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="26"/>
-      <c r="AK28" s="57">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AR28" s="69"/>
-      <c r="AS28" s="71"/>
-      <c r="AT28" s="71"/>
-      <c r="AU28" s="71"/>
-      <c r="AV28" s="71"/>
-      <c r="AW28" s="71"/>
-      <c r="AX28" s="71"/>
-      <c r="AY28" s="71"/>
-      <c r="AZ28" s="71"/>
-      <c r="BA28" s="71"/>
-      <c r="BB28" s="71"/>
-      <c r="BC28" s="71"/>
-      <c r="BD28" s="71"/>
-      <c r="BE28" s="71"/>
-      <c r="BF28" s="71"/>
-      <c r="BG28" s="71"/>
-      <c r="BH28" s="71"/>
-      <c r="BI28" s="71"/>
-      <c r="BJ28" s="71"/>
-      <c r="BK28" s="71"/>
-      <c r="BL28" s="71"/>
-      <c r="BM28" s="71"/>
-      <c r="BN28" s="71"/>
-      <c r="BO28" s="72"/>
+      <c r="AK28" s="51">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="51"/>
     </row>
     <row r="29" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -2088,41 +1961,18 @@
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
       <c r="AQ29" s="4"/>
-      <c r="AR29" s="70"/>
-      <c r="AS29" s="71"/>
-      <c r="AT29" s="71"/>
-      <c r="AU29" s="71"/>
-      <c r="AV29" s="71"/>
-      <c r="AW29" s="71"/>
-      <c r="AX29" s="71"/>
-      <c r="AY29" s="71"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="71"/>
-      <c r="BB29" s="71"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="71"/>
-      <c r="BE29" s="71"/>
-      <c r="BF29" s="71"/>
-      <c r="BG29" s="71"/>
-      <c r="BH29" s="71"/>
-      <c r="BI29" s="71"/>
-      <c r="BJ29" s="71"/>
-      <c r="BK29" s="71"/>
-      <c r="BL29" s="71"/>
-      <c r="BM29" s="71"/>
-      <c r="BN29" s="71"/>
-      <c r="BO29" s="72"/>
+      <c r="AR29" s="4"/>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.3">
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
       <c r="O30" s="19"/>
       <c r="P30" s="37" t="s">
         <v>10</v>
@@ -2159,30 +2009,6 @@
       <c r="AN30" s="37"/>
       <c r="AO30" s="37"/>
       <c r="AP30" s="37"/>
-      <c r="AR30" s="69"/>
-      <c r="AS30" s="71"/>
-      <c r="AT30" s="71"/>
-      <c r="AU30" s="71"/>
-      <c r="AV30" s="71"/>
-      <c r="AW30" s="71"/>
-      <c r="AX30" s="71"/>
-      <c r="AY30" s="71"/>
-      <c r="AZ30" s="71"/>
-      <c r="BA30" s="71"/>
-      <c r="BB30" s="71"/>
-      <c r="BC30" s="71"/>
-      <c r="BD30" s="71"/>
-      <c r="BE30" s="71"/>
-      <c r="BF30" s="71"/>
-      <c r="BG30" s="71"/>
-      <c r="BH30" s="71"/>
-      <c r="BI30" s="71"/>
-      <c r="BJ30" s="71"/>
-      <c r="BK30" s="71"/>
-      <c r="BL30" s="71"/>
-      <c r="BM30" s="71"/>
-      <c r="BN30" s="71"/>
-      <c r="BO30" s="72"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.3">
       <c r="G31" s="36"/>
@@ -2190,73 +2016,49 @@
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
       <c r="O31" s="19"/>
-      <c r="P31" s="55">
+      <c r="P31" s="53">
         <f>IF(P30="Caso 1",IF(P28=0,0,P27/P28),IF(P28=0,0,(3/4)*P27/P28))</f>
         <v>1</v>
       </c>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
       <c r="V31" s="18"/>
-      <c r="W31" s="55">
+      <c r="W31" s="53">
         <f t="shared" ref="W31" si="0">IF(W30="Caso 1",IF(W28=0,0,W27/W28),IF(W28=0,0,(3/4)*W27/W28))</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
       <c r="AC31" s="18"/>
-      <c r="AD31" s="55">
+      <c r="AD31" s="53">
         <f t="shared" ref="AD31" si="1">IF(AD30="Caso 1",IF(AD28=0,0,AD27/AD28),IF(AD28=0,0,(3/4)*AD27/AD28))</f>
         <v>1</v>
       </c>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="55"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
       <c r="AJ31" s="18"/>
-      <c r="AK31" s="55">
+      <c r="AK31" s="53">
         <f t="shared" ref="AK31" si="2">IF(AK30="Caso 1",IF(AK28=0,0,AK27/AK28),IF(AK28=0,0,(3/4)*AK27/AK28))</f>
         <v>0</v>
       </c>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="55"/>
-      <c r="AO31" s="55"/>
-      <c r="AP31" s="55"/>
-      <c r="AR31" s="69"/>
-      <c r="AS31" s="71"/>
-      <c r="AT31" s="71"/>
-      <c r="AU31" s="71"/>
-      <c r="AV31" s="71"/>
-      <c r="AW31" s="71"/>
-      <c r="AX31" s="71"/>
-      <c r="AY31" s="71"/>
-      <c r="AZ31" s="71"/>
-      <c r="BA31" s="71"/>
-      <c r="BB31" s="71"/>
-      <c r="BC31" s="71"/>
-      <c r="BD31" s="71"/>
-      <c r="BE31" s="71"/>
-      <c r="BF31" s="71"/>
-      <c r="BG31" s="71"/>
-      <c r="BH31" s="71"/>
-      <c r="BI31" s="71"/>
-      <c r="BJ31" s="71"/>
-      <c r="BK31" s="71"/>
-      <c r="BL31" s="71"/>
-      <c r="BM31" s="71"/>
-      <c r="BN31" s="71"/>
-      <c r="BO31" s="72"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -2302,41 +2104,18 @@
       <c r="AO32" s="6"/>
       <c r="AP32" s="6"/>
       <c r="AQ32" s="4"/>
-      <c r="AR32" s="70"/>
-      <c r="AS32" s="71"/>
-      <c r="AT32" s="71"/>
-      <c r="AU32" s="71"/>
-      <c r="AV32" s="71"/>
-      <c r="AW32" s="71"/>
-      <c r="AX32" s="71"/>
-      <c r="AY32" s="71"/>
-      <c r="AZ32" s="71"/>
-      <c r="BA32" s="71"/>
-      <c r="BB32" s="71"/>
-      <c r="BC32" s="71"/>
-      <c r="BD32" s="71"/>
-      <c r="BE32" s="71"/>
-      <c r="BF32" s="71"/>
-      <c r="BG32" s="71"/>
-      <c r="BH32" s="71"/>
-      <c r="BI32" s="71"/>
-      <c r="BJ32" s="71"/>
-      <c r="BK32" s="71"/>
-      <c r="BL32" s="71"/>
-      <c r="BM32" s="71"/>
-      <c r="BN32" s="71"/>
-      <c r="BO32" s="72"/>
-    </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="AR32" s="4"/>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
-      <c r="K33" s="42" t="s">
+      <c r="K33" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
       <c r="O33" s="19"/>
       <c r="P33" s="37" t="s">
         <v>0</v>
@@ -2377,40 +2156,16 @@
       <c r="AN33" s="37"/>
       <c r="AO33" s="37"/>
       <c r="AP33" s="37"/>
-      <c r="AR33" s="69"/>
-      <c r="AS33" s="71"/>
-      <c r="AT33" s="71"/>
-      <c r="AU33" s="71"/>
-      <c r="AV33" s="71"/>
-      <c r="AW33" s="71"/>
-      <c r="AX33" s="71"/>
-      <c r="AY33" s="71"/>
-      <c r="AZ33" s="71"/>
-      <c r="BA33" s="71"/>
-      <c r="BB33" s="71"/>
-      <c r="BC33" s="71"/>
-      <c r="BD33" s="71"/>
-      <c r="BE33" s="71"/>
-      <c r="BF33" s="71"/>
-      <c r="BG33" s="71"/>
-      <c r="BH33" s="71"/>
-      <c r="BI33" s="71"/>
-      <c r="BJ33" s="71"/>
-      <c r="BK33" s="71"/>
-      <c r="BL33" s="71"/>
-      <c r="BM33" s="71"/>
-      <c r="BN33" s="71"/>
-      <c r="BO33" s="72"/>
-    </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
       <c r="O34" s="19"/>
       <c r="P34" s="37">
         <f>IF(P30="Caso 1",0,1)</f>
@@ -2454,32 +2209,8 @@
       <c r="AK34" s="37"/>
       <c r="AL34" s="37"/>
       <c r="AM34" s="37"/>
-      <c r="AR34" s="69"/>
-      <c r="AS34" s="71"/>
-      <c r="AT34" s="71"/>
-      <c r="AU34" s="71"/>
-      <c r="AV34" s="71"/>
-      <c r="AW34" s="71"/>
-      <c r="AX34" s="71"/>
-      <c r="AY34" s="71"/>
-      <c r="AZ34" s="71"/>
-      <c r="BA34" s="71"/>
-      <c r="BB34" s="71"/>
-      <c r="BC34" s="71"/>
-      <c r="BD34" s="71"/>
-      <c r="BE34" s="71"/>
-      <c r="BF34" s="71"/>
-      <c r="BG34" s="71"/>
-      <c r="BH34" s="71"/>
-      <c r="BI34" s="71"/>
-      <c r="BJ34" s="71"/>
-      <c r="BK34" s="71"/>
-      <c r="BL34" s="71"/>
-      <c r="BM34" s="71"/>
-      <c r="BN34" s="71"/>
-      <c r="BO34" s="72"/>
-    </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2494,12 +2225,12 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="54"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
       <c r="V35" s="18"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
@@ -2520,32 +2251,9 @@
       <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
-      <c r="AR35" s="70"/>
-      <c r="AS35" s="71"/>
-      <c r="AT35" s="71"/>
-      <c r="AU35" s="71"/>
-      <c r="AV35" s="71"/>
-      <c r="AW35" s="71"/>
-      <c r="AX35" s="71"/>
-      <c r="AY35" s="71"/>
-      <c r="AZ35" s="71"/>
-      <c r="BA35" s="71"/>
-      <c r="BB35" s="71"/>
-      <c r="BC35" s="71"/>
-      <c r="BD35" s="71"/>
-      <c r="BE35" s="71"/>
-      <c r="BF35" s="71"/>
-      <c r="BG35" s="71"/>
-      <c r="BH35" s="71"/>
-      <c r="BI35" s="71"/>
-      <c r="BJ35" s="71"/>
-      <c r="BK35" s="71"/>
-      <c r="BL35" s="71"/>
-      <c r="BM35" s="71"/>
-      <c r="BN35" s="71"/>
-      <c r="BO35" s="72"/>
-    </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="AR35" s="4"/>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2586,207 +2294,112 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
-      <c r="AR36" s="69"/>
-      <c r="AS36" s="71"/>
-      <c r="AT36" s="71"/>
-      <c r="AU36" s="71"/>
-      <c r="AV36" s="71"/>
-      <c r="AW36" s="71"/>
-      <c r="AX36" s="71"/>
-      <c r="AY36" s="71"/>
-      <c r="AZ36" s="71"/>
-      <c r="BA36" s="71"/>
-      <c r="BB36" s="71"/>
-      <c r="BC36" s="71"/>
-      <c r="BD36" s="71"/>
-      <c r="BE36" s="71"/>
-      <c r="BF36" s="71"/>
-      <c r="BG36" s="71"/>
-      <c r="BH36" s="71"/>
-      <c r="BI36" s="71"/>
-      <c r="BJ36" s="71"/>
-      <c r="BK36" s="71"/>
-      <c r="BL36" s="71"/>
-      <c r="BM36" s="71"/>
-      <c r="BN36" s="71"/>
-      <c r="BO36" s="72"/>
-    </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L37" s="37" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
-      <c r="P37" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
+      <c r="P37" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
       <c r="V37" s="18"/>
-      <c r="W37" s="40">
+      <c r="W37" s="38">
         <v>5</v>
       </c>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="40"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
       <c r="AC37" s="18"/>
-      <c r="AD37" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="40"/>
-      <c r="AG37" s="40"/>
-      <c r="AH37" s="40"/>
-      <c r="AI37" s="40"/>
+      <c r="AD37" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
       <c r="AJ37" s="18"/>
-      <c r="AK37" s="40"/>
-      <c r="AL37" s="40"/>
-      <c r="AM37" s="40"/>
-      <c r="AN37" s="40"/>
-      <c r="AO37" s="40"/>
-      <c r="AP37" s="40"/>
-      <c r="AR37" s="69"/>
-      <c r="AS37" s="71"/>
-      <c r="AT37" s="71"/>
-      <c r="AU37" s="71"/>
-      <c r="AV37" s="71"/>
-      <c r="AW37" s="71"/>
-      <c r="AX37" s="71"/>
-      <c r="AY37" s="71"/>
-      <c r="AZ37" s="71"/>
-      <c r="BA37" s="71"/>
-      <c r="BB37" s="71"/>
-      <c r="BC37" s="71"/>
-      <c r="BD37" s="71"/>
-      <c r="BE37" s="71"/>
-      <c r="BF37" s="71"/>
-      <c r="BG37" s="71"/>
-      <c r="BH37" s="71"/>
-      <c r="BI37" s="71"/>
-      <c r="BJ37" s="71"/>
-      <c r="BK37" s="71"/>
-      <c r="BL37" s="71"/>
-      <c r="BM37" s="71"/>
-      <c r="BN37" s="71"/>
-      <c r="BO37" s="72"/>
-    </row>
-    <row r="38" spans="1:67" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P38" s="42" t="s">
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+    </row>
+    <row r="38" spans="1:44" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P38" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42" t="s">
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
       <c r="V38" s="27"/>
-      <c r="W38" s="42" t="s">
+      <c r="W38" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42" t="s">
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="57"/>
       <c r="AC38" s="27"/>
-      <c r="AD38" s="42" t="s">
+      <c r="AD38" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AE38" s="42"/>
-      <c r="AF38" s="42"/>
-      <c r="AG38" s="42" t="s">
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AH38" s="42"/>
-      <c r="AI38" s="42"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="57"/>
       <c r="AJ38" s="27"/>
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
       <c r="AM38" s="14"/>
-      <c r="AR38" s="69"/>
-      <c r="AS38" s="71"/>
-      <c r="AT38" s="71"/>
-      <c r="AU38" s="71"/>
-      <c r="AV38" s="71"/>
-      <c r="AW38" s="71"/>
-      <c r="AX38" s="71"/>
-      <c r="AY38" s="71"/>
-      <c r="AZ38" s="71"/>
-      <c r="BA38" s="71"/>
-      <c r="BB38" s="71"/>
-      <c r="BC38" s="71"/>
-      <c r="BD38" s="71"/>
-      <c r="BE38" s="71"/>
-      <c r="BF38" s="71"/>
-      <c r="BG38" s="71"/>
-      <c r="BH38" s="71"/>
-      <c r="BI38" s="71"/>
-      <c r="BJ38" s="71"/>
-      <c r="BK38" s="71"/>
-      <c r="BL38" s="71"/>
-      <c r="BM38" s="71"/>
-      <c r="BN38" s="71"/>
-      <c r="BO38" s="72"/>
-    </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
       <c r="V39" s="27"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="57"/>
+      <c r="AA39" s="57"/>
+      <c r="AB39" s="57"/>
       <c r="AC39" s="27"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
-      <c r="AI39" s="42"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="57"/>
+      <c r="AF39" s="57"/>
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="57"/>
       <c r="AJ39" s="27"/>
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
       <c r="AM39" s="14"/>
-      <c r="AR39" s="69"/>
-      <c r="AS39" s="69"/>
-      <c r="AT39" s="69"/>
-      <c r="AU39" s="69"/>
-      <c r="AV39" s="69"/>
-      <c r="AW39" s="69"/>
-      <c r="AX39" s="69"/>
-      <c r="AY39" s="69"/>
-      <c r="AZ39" s="69"/>
-      <c r="BA39" s="69"/>
-      <c r="BB39" s="69"/>
-      <c r="BC39" s="69"/>
-      <c r="BD39" s="69"/>
-      <c r="BE39" s="69"/>
-      <c r="BF39" s="69"/>
-      <c r="BG39" s="69"/>
-      <c r="BH39" s="69"/>
-      <c r="BI39" s="69"/>
-      <c r="BJ39" s="69"/>
-      <c r="BK39" s="69"/>
-      <c r="BL39" s="69"/>
-      <c r="BM39" s="69"/>
-      <c r="BN39" s="69"/>
-    </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="P40" s="37">
         <f>_xlfn.IFS(P38="Uniformemente Distribuido",BU8,P38="Puntual Centrica ",BU9,P38="Otro tipo ",BU10)</f>
         <v>0</v>
@@ -2830,86 +2443,86 @@
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
     </row>
-    <row r="42" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L42" t="s">
         <v>29</v>
       </c>
-      <c r="O42" s="46" t="s">
+      <c r="O42" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="49" t="s">
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="49" t="s">
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="51"/>
-      <c r="AG42" s="49" t="s">
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50"/>
-      <c r="AJ42" s="51"/>
-    </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="60"/>
+      <c r="AJ42" s="61"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L43" t="s">
         <v>30</v>
       </c>
       <c r="O43" s="20"/>
-      <c r="P43" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39" t="s">
+      <c r="P43" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
       <c r="V43" s="28"/>
-      <c r="W43" s="39" t="s">
+      <c r="W43" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
-      <c r="Z43" s="39" t="s">
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AA43" s="39"/>
-      <c r="AB43" s="39"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
       <c r="AC43" s="28"/>
-      <c r="AD43" s="39" t="s">
+      <c r="AD43" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="AE43" s="39"/>
-      <c r="AF43" s="39"/>
-      <c r="AG43" s="39" t="s">
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AH43" s="39"/>
-      <c r="AI43" s="39"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
       <c r="AJ43" s="31"/>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L44" t="s">
         <v>31</v>
       </c>
       <c r="O44" s="21"/>
-      <c r="P44" s="52">
+      <c r="P44" s="62">
         <f>P34</f>
         <v>0</v>
       </c>
@@ -2949,12 +2562,12 @@
       <c r="AI44" s="37"/>
       <c r="AJ44" s="32"/>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L45" t="s">
         <v>32</v>
       </c>
       <c r="O45" s="21"/>
-      <c r="P45" s="52">
+      <c r="P45" s="62">
         <f>P40</f>
         <v>0</v>
       </c>
@@ -2994,139 +2607,139 @@
       <c r="AI45" s="37"/>
       <c r="AJ45" s="32"/>
     </row>
-    <row r="46" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L46" t="s">
         <v>33</v>
       </c>
       <c r="O46" s="22"/>
-      <c r="P46" s="44">
+      <c r="P46" s="41">
         <f>-SUM(P45)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44">
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41">
         <f>-SUM(S45:Y45)*$S$44</f>
         <v>5.1428571428571423</v>
       </c>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
       <c r="V46" s="29"/>
-      <c r="W46" s="44">
+      <c r="W46" s="41">
         <f>-SUM(S45:Y45)*$W$44</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44">
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41">
         <f>-SUM(Z45:AF45)*$Z$44</f>
         <v>-1.2857142857142856</v>
       </c>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
       <c r="AC46" s="29"/>
-      <c r="AD46" s="44">
+      <c r="AD46" s="41">
         <f>-SUM(Z45:AF45)*$AD$44</f>
         <v>-7.7142857142857135</v>
       </c>
-      <c r="AE46" s="44"/>
-      <c r="AF46" s="44"/>
-      <c r="AG46" s="44">
+      <c r="AE46" s="41"/>
+      <c r="AF46" s="41"/>
+      <c r="AG46" s="41">
         <f>-SUM(AG45)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH46" s="44"/>
-      <c r="AI46" s="44"/>
+      <c r="AH46" s="41"/>
+      <c r="AI46" s="41"/>
       <c r="AJ46" s="33"/>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L47" t="s">
         <v>34</v>
       </c>
       <c r="O47" s="23"/>
-      <c r="P47" s="43">
+      <c r="P47" s="40">
         <f>0.5*S46</f>
         <v>2.5714285714285712</v>
       </c>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43">
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40">
         <f>0.5*P46</f>
         <v>0</v>
       </c>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
       <c r="V47" s="30"/>
-      <c r="W47" s="43">
+      <c r="W47" s="40">
         <f>0.5*Z46</f>
         <v>-0.64285714285714279</v>
       </c>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43">
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40">
         <f>0.5*W46</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
       <c r="AC47" s="30"/>
-      <c r="AD47" s="43">
+      <c r="AD47" s="40">
         <f>0.5*AG46</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="43"/>
-      <c r="AF47" s="43"/>
-      <c r="AG47" s="43">
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40">
         <f>0.5*AD46</f>
         <v>-3.8571428571428568</v>
       </c>
-      <c r="AH47" s="43"/>
-      <c r="AI47" s="43"/>
+      <c r="AH47" s="40"/>
+      <c r="AI47" s="40"/>
       <c r="AJ47" s="34"/>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="L48" t="s">
         <v>35</v>
       </c>
       <c r="O48" s="24"/>
-      <c r="P48" s="45">
+      <c r="P48" s="39">
         <f t="shared" ref="P48" si="3">-SUM(P47)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45">
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39">
         <f t="shared" ref="S48" si="4">-SUM(S47:Y47)*$S$44</f>
         <v>0.55102040816326525</v>
       </c>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
       <c r="V48" s="18"/>
-      <c r="W48" s="45">
+      <c r="W48" s="39">
         <f t="shared" ref="W48" si="5">-SUM(S47:Y47)*$W$44</f>
         <v>9.1836734693877542E-2</v>
       </c>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45">
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39">
         <f t="shared" ref="Z48" si="6">-SUM(Z47:AF47)*$Z$44</f>
         <v>-6.1224489795918359E-2</v>
       </c>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
       <c r="AC48" s="18"/>
-      <c r="AD48" s="45">
+      <c r="AD48" s="39">
         <f t="shared" ref="AD48" si="7">-SUM(Z47:AF47)*$AD$44</f>
         <v>-0.36734693877551017</v>
       </c>
-      <c r="AE48" s="45"/>
-      <c r="AF48" s="45"/>
-      <c r="AG48" s="45">
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39">
         <f t="shared" ref="AG48" si="8">-SUM(AG47)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH48" s="45"/>
-      <c r="AI48" s="45"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
       <c r="AJ48" s="35"/>
       <c r="AK48" s="37"/>
       <c r="AL48" s="37"/>
@@ -3137,44 +2750,44 @@
         <v>36</v>
       </c>
       <c r="O49" s="23"/>
-      <c r="P49" s="43">
+      <c r="P49" s="40">
         <f t="shared" ref="P49" si="9">0.5*S48</f>
         <v>0.27551020408163263</v>
       </c>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43">
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40">
         <f t="shared" ref="S49" si="10">0.5*P48</f>
         <v>0</v>
       </c>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
       <c r="V49" s="30"/>
-      <c r="W49" s="43">
+      <c r="W49" s="40">
         <f t="shared" ref="W49" si="11">0.5*Z48</f>
         <v>-3.0612244897959179E-2</v>
       </c>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43"/>
-      <c r="Z49" s="43">
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40">
         <f t="shared" ref="Z49" si="12">0.5*W48</f>
         <v>4.5918367346938771E-2</v>
       </c>
-      <c r="AA49" s="43"/>
-      <c r="AB49" s="43"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="40"/>
       <c r="AC49" s="30"/>
-      <c r="AD49" s="43">
+      <c r="AD49" s="40">
         <f t="shared" ref="AD49" si="13">0.5*AG48</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="43"/>
-      <c r="AF49" s="43"/>
-      <c r="AG49" s="43">
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="40"/>
+      <c r="AG49" s="40">
         <f t="shared" ref="AG49" si="14">0.5*AD48</f>
         <v>-0.18367346938775508</v>
       </c>
-      <c r="AH49" s="43"/>
-      <c r="AI49" s="43"/>
+      <c r="AH49" s="40"/>
+      <c r="AI49" s="40"/>
       <c r="AJ49" s="34"/>
       <c r="AK49" s="37"/>
       <c r="AL49" s="37"/>
@@ -3185,44 +2798,44 @@
         <v>37</v>
       </c>
       <c r="O50" s="22"/>
-      <c r="P50" s="44">
+      <c r="P50" s="41">
         <f t="shared" ref="P50" si="15">-SUM(P49)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44">
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41">
         <f t="shared" ref="S50" si="16">-SUM(S49:Y49)*$S$44</f>
         <v>2.623906705539358E-2</v>
       </c>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
       <c r="V50" s="29"/>
-      <c r="W50" s="44">
+      <c r="W50" s="41">
         <f t="shared" ref="W50" si="17">-SUM(S49:Y49)*$W$44</f>
         <v>4.3731778425655969E-3</v>
       </c>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44">
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41">
         <f t="shared" ref="Z50" si="18">-SUM(Z49:AF49)*$Z$44</f>
         <v>-6.5597667638483959E-3</v>
       </c>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="44"/>
+      <c r="AA50" s="41"/>
+      <c r="AB50" s="41"/>
       <c r="AC50" s="29"/>
-      <c r="AD50" s="44">
+      <c r="AD50" s="41">
         <f t="shared" ref="AD50" si="19">-SUM(Z49:AF49)*$AD$44</f>
         <v>-3.9358600583090375E-2</v>
       </c>
-      <c r="AE50" s="44"/>
-      <c r="AF50" s="44"/>
-      <c r="AG50" s="44">
+      <c r="AE50" s="41"/>
+      <c r="AF50" s="41"/>
+      <c r="AG50" s="41">
         <f t="shared" ref="AG50" si="20">-SUM(AG49)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="44"/>
+      <c r="AH50" s="41"/>
+      <c r="AI50" s="41"/>
       <c r="AJ50" s="33"/>
       <c r="AK50" s="37"/>
       <c r="AL50" s="37"/>
@@ -3233,44 +2846,44 @@
         <v>38</v>
       </c>
       <c r="O51" s="24"/>
-      <c r="P51" s="53">
+      <c r="P51" s="42">
         <f t="shared" ref="P51" si="21">0.5*S50</f>
         <v>1.311953352769679E-2</v>
       </c>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53">
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42">
         <f t="shared" ref="S51" si="22">0.5*P50</f>
         <v>0</v>
       </c>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
       <c r="V51" s="18"/>
-      <c r="W51" s="53">
+      <c r="W51" s="42">
         <f t="shared" ref="W51" si="23">0.5*Z50</f>
         <v>-3.2798833819241979E-3</v>
       </c>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53">
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42">
         <f t="shared" ref="Z51" si="24">0.5*W50</f>
         <v>2.1865889212827985E-3</v>
       </c>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="42"/>
       <c r="AC51" s="18"/>
-      <c r="AD51" s="53">
+      <c r="AD51" s="42">
         <f t="shared" ref="AD51" si="25">0.5*AG50</f>
         <v>0</v>
       </c>
-      <c r="AE51" s="53"/>
-      <c r="AF51" s="53"/>
-      <c r="AG51" s="53">
+      <c r="AE51" s="42"/>
+      <c r="AF51" s="42"/>
+      <c r="AG51" s="42">
         <f t="shared" ref="AG51" si="26">0.5*AD50</f>
         <v>-1.9679300291545188E-2</v>
       </c>
-      <c r="AH51" s="53"/>
-      <c r="AI51" s="53"/>
+      <c r="AH51" s="42"/>
+      <c r="AI51" s="42"/>
       <c r="AJ51" s="35"/>
       <c r="AK51" s="37"/>
       <c r="AL51" s="37"/>
@@ -3281,44 +2894,44 @@
         <v>39</v>
       </c>
       <c r="O52" s="22"/>
-      <c r="P52" s="44">
+      <c r="P52" s="41">
         <f t="shared" ref="P52" si="27">-SUM(P51)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44">
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41">
         <f t="shared" ref="S52" si="28">-SUM(S51:Y51)*$S$44</f>
         <v>2.8113286130778837E-3</v>
       </c>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
       <c r="V52" s="29"/>
-      <c r="W52" s="44">
+      <c r="W52" s="41">
         <f t="shared" ref="W52" si="29">-SUM(S51:Y51)*$W$44</f>
         <v>4.6855476884631397E-4</v>
       </c>
-      <c r="X52" s="44"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="44">
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41">
         <f t="shared" ref="Z52" si="30">-SUM(Z51:AF51)*$Z$44</f>
         <v>-3.1236984589754261E-4</v>
       </c>
-      <c r="AA52" s="44"/>
-      <c r="AB52" s="44"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="41"/>
       <c r="AC52" s="29"/>
-      <c r="AD52" s="44">
+      <c r="AD52" s="41">
         <f t="shared" ref="AD52" si="31">-SUM(Z51:AF51)*$AD$44</f>
         <v>-1.8742190753852556E-3</v>
       </c>
-      <c r="AE52" s="44"/>
-      <c r="AF52" s="44"/>
-      <c r="AG52" s="44">
+      <c r="AE52" s="41"/>
+      <c r="AF52" s="41"/>
+      <c r="AG52" s="41">
         <f t="shared" ref="AG52" si="32">-SUM(AG51)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH52" s="44"/>
-      <c r="AI52" s="44"/>
+      <c r="AH52" s="41"/>
+      <c r="AI52" s="41"/>
       <c r="AJ52" s="33"/>
       <c r="AK52" s="37"/>
       <c r="AL52" s="37"/>
@@ -3329,44 +2942,44 @@
         <v>40</v>
       </c>
       <c r="O53" s="23"/>
-      <c r="P53" s="43">
+      <c r="P53" s="40">
         <f t="shared" ref="P53" si="33">0.5*S52</f>
         <v>1.4056643065389418E-3</v>
       </c>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43">
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40">
         <f t="shared" ref="S53" si="34">0.5*P52</f>
         <v>0</v>
       </c>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
       <c r="V53" s="30"/>
-      <c r="W53" s="43">
+      <c r="W53" s="40">
         <f t="shared" ref="W53" si="35">0.5*Z52</f>
         <v>-1.561849229487713E-4</v>
       </c>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="43">
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40">
         <f t="shared" ref="Z53" si="36">0.5*W52</f>
         <v>2.3427738442315698E-4</v>
       </c>
-      <c r="AA53" s="43"/>
-      <c r="AB53" s="43"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="40"/>
       <c r="AC53" s="30"/>
-      <c r="AD53" s="43">
+      <c r="AD53" s="40">
         <f t="shared" ref="AD53" si="37">0.5*AG52</f>
         <v>0</v>
       </c>
-      <c r="AE53" s="43"/>
-      <c r="AF53" s="43"/>
-      <c r="AG53" s="43">
+      <c r="AE53" s="40"/>
+      <c r="AF53" s="40"/>
+      <c r="AG53" s="40">
         <f t="shared" ref="AG53" si="38">0.5*AD52</f>
         <v>-9.3710953769262782E-4</v>
       </c>
-      <c r="AH53" s="43"/>
-      <c r="AI53" s="43"/>
+      <c r="AH53" s="40"/>
+      <c r="AI53" s="40"/>
       <c r="AJ53" s="34"/>
       <c r="AK53" s="37"/>
       <c r="AL53" s="37"/>
@@ -3377,44 +2990,44 @@
         <v>41</v>
       </c>
       <c r="O54" s="22"/>
-      <c r="P54" s="44">
+      <c r="P54" s="41">
         <f t="shared" ref="P54" si="39">-SUM(P53)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44">
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41">
         <f t="shared" ref="S54" si="40">-SUM(S53:Y53)*$S$44</f>
         <v>1.3387279109894682E-4</v>
       </c>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
       <c r="V54" s="29"/>
-      <c r="W54" s="44">
+      <c r="W54" s="41">
         <f t="shared" ref="W54" si="41">-SUM(S53:Y53)*$W$44</f>
         <v>2.2312131849824471E-5</v>
       </c>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="44">
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41">
         <f t="shared" ref="Z54" si="42">-SUM(Z53:AF53)*$Z$44</f>
         <v>-3.3468197774736711E-5</v>
       </c>
-      <c r="AA54" s="44"/>
-      <c r="AB54" s="44"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
       <c r="AC54" s="29"/>
-      <c r="AD54" s="44">
+      <c r="AD54" s="41">
         <f t="shared" ref="AD54" si="43">-SUM(Z53:AF53)*$AD$44</f>
         <v>-2.0080918664842025E-4</v>
       </c>
-      <c r="AE54" s="44"/>
-      <c r="AF54" s="44"/>
-      <c r="AG54" s="44">
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="41"/>
+      <c r="AG54" s="41">
         <f t="shared" ref="AG54" si="44">-SUM(AG53)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH54" s="44"/>
-      <c r="AI54" s="44"/>
+      <c r="AH54" s="41"/>
+      <c r="AI54" s="41"/>
       <c r="AJ54" s="33"/>
       <c r="AK54" s="37"/>
       <c r="AL54" s="37"/>
@@ -3425,44 +3038,44 @@
         <v>42</v>
       </c>
       <c r="O55" s="23"/>
-      <c r="P55" s="43">
+      <c r="P55" s="40">
         <f t="shared" ref="P55" si="45">0.5*S54</f>
         <v>6.6936395549473408E-5</v>
       </c>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43">
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40">
         <f t="shared" ref="S55" si="46">0.5*P54</f>
         <v>0</v>
       </c>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
       <c r="V55" s="30"/>
-      <c r="W55" s="43">
+      <c r="W55" s="40">
         <f t="shared" ref="W55" si="47">0.5*Z54</f>
         <v>-1.6734098887368355E-5</v>
       </c>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="43"/>
-      <c r="Z55" s="43">
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40">
         <f t="shared" ref="Z55" si="48">0.5*W54</f>
         <v>1.1156065924912235E-5</v>
       </c>
-      <c r="AA55" s="43"/>
-      <c r="AB55" s="43"/>
+      <c r="AA55" s="40"/>
+      <c r="AB55" s="40"/>
       <c r="AC55" s="30"/>
-      <c r="AD55" s="43">
+      <c r="AD55" s="40">
         <f t="shared" ref="AD55" si="49">0.5*AG54</f>
         <v>0</v>
       </c>
-      <c r="AE55" s="43"/>
-      <c r="AF55" s="43"/>
-      <c r="AG55" s="43">
+      <c r="AE55" s="40"/>
+      <c r="AF55" s="40"/>
+      <c r="AG55" s="40">
         <f t="shared" ref="AG55" si="50">0.5*AD54</f>
         <v>-1.0040459332421013E-4</v>
       </c>
-      <c r="AH55" s="43"/>
-      <c r="AI55" s="43"/>
+      <c r="AH55" s="40"/>
+      <c r="AI55" s="40"/>
       <c r="AJ55" s="34"/>
       <c r="AK55" s="37"/>
       <c r="AL55" s="37"/>
@@ -3473,44 +3086,44 @@
         <v>43</v>
       </c>
       <c r="O56" s="22"/>
-      <c r="P56" s="44">
+      <c r="P56" s="41">
         <f t="shared" ref="P56" si="51">-SUM(P55)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44">
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41">
         <f t="shared" ref="S56" si="52">-SUM(S55:Y55)*$S$44</f>
         <v>1.4343513332030018E-5</v>
       </c>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
       <c r="V56" s="29"/>
-      <c r="W56" s="44">
+      <c r="W56" s="41">
         <f t="shared" ref="W56" si="53">-SUM(S55:Y55)*$W$44</f>
         <v>2.3905855553383366E-6</v>
       </c>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="44">
+      <c r="X56" s="41"/>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="41">
         <f t="shared" ref="Z56" si="54">-SUM(Z55:AF55)*$Z$44</f>
         <v>-1.5937237035588908E-6</v>
       </c>
-      <c r="AA56" s="44"/>
-      <c r="AB56" s="44"/>
+      <c r="AA56" s="41"/>
+      <c r="AB56" s="41"/>
       <c r="AC56" s="29"/>
-      <c r="AD56" s="44">
+      <c r="AD56" s="41">
         <f t="shared" ref="AD56" si="55">-SUM(Z55:AF55)*$AD$44</f>
         <v>-9.5623422213533445E-6</v>
       </c>
-      <c r="AE56" s="44"/>
-      <c r="AF56" s="44"/>
-      <c r="AG56" s="44">
+      <c r="AE56" s="41"/>
+      <c r="AF56" s="41"/>
+      <c r="AG56" s="41">
         <f t="shared" ref="AG56" si="56">-SUM(AG55)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH56" s="44"/>
-      <c r="AI56" s="44"/>
+      <c r="AH56" s="41"/>
+      <c r="AI56" s="41"/>
       <c r="AJ56" s="33"/>
       <c r="AK56" s="37"/>
       <c r="AL56" s="37"/>
@@ -3521,44 +3134,44 @@
         <v>44</v>
       </c>
       <c r="O57" s="23"/>
-      <c r="P57" s="43">
+      <c r="P57" s="40">
         <f t="shared" ref="P57" si="57">0.5*S56</f>
         <v>7.1717566660150092E-6</v>
       </c>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43">
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40">
         <f t="shared" ref="S57" si="58">0.5*P56</f>
         <v>0</v>
       </c>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
       <c r="V57" s="30"/>
-      <c r="W57" s="43">
+      <c r="W57" s="40">
         <f t="shared" ref="W57" si="59">0.5*Z56</f>
         <v>-7.9686185177944538E-7</v>
       </c>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="43"/>
-      <c r="Z57" s="43">
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40">
         <f t="shared" ref="Z57" si="60">0.5*W56</f>
         <v>1.1952927776691683E-6</v>
       </c>
-      <c r="AA57" s="43"/>
-      <c r="AB57" s="43"/>
+      <c r="AA57" s="40"/>
+      <c r="AB57" s="40"/>
       <c r="AC57" s="30"/>
-      <c r="AD57" s="43">
+      <c r="AD57" s="40">
         <f t="shared" ref="AD57" si="61">0.5*AG56</f>
         <v>0</v>
       </c>
-      <c r="AE57" s="43"/>
-      <c r="AF57" s="43"/>
-      <c r="AG57" s="43">
+      <c r="AE57" s="40"/>
+      <c r="AF57" s="40"/>
+      <c r="AG57" s="40">
         <f t="shared" ref="AG57" si="62">0.5*AD56</f>
         <v>-4.7811711106766723E-6</v>
       </c>
-      <c r="AH57" s="43"/>
-      <c r="AI57" s="43"/>
+      <c r="AH57" s="40"/>
+      <c r="AI57" s="40"/>
       <c r="AJ57" s="34"/>
       <c r="AK57" s="37"/>
       <c r="AL57" s="37"/>
@@ -3569,44 +3182,44 @@
         <v>45</v>
       </c>
       <c r="O58" s="22"/>
-      <c r="P58" s="44">
+      <c r="P58" s="41">
         <f t="shared" ref="P58" si="63">-SUM(P57)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
-      <c r="S58" s="44">
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41">
         <f t="shared" ref="S58" si="64">-SUM(S57:Y57)*$S$44</f>
         <v>6.8302444438238171E-7</v>
       </c>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
       <c r="V58" s="29"/>
-      <c r="W58" s="44">
+      <c r="W58" s="41">
         <f t="shared" ref="W58" si="65">-SUM(S57:Y57)*$W$44</f>
         <v>1.1383740739706362E-7</v>
       </c>
-      <c r="X58" s="44"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="44">
+      <c r="X58" s="41"/>
+      <c r="Y58" s="41"/>
+      <c r="Z58" s="41">
         <f t="shared" ref="Z58" si="66">-SUM(Z57:AF57)*$Z$44</f>
         <v>-1.7075611109559545E-7</v>
       </c>
-      <c r="AA58" s="44"/>
-      <c r="AB58" s="44"/>
+      <c r="AA58" s="41"/>
+      <c r="AB58" s="41"/>
       <c r="AC58" s="29"/>
-      <c r="AD58" s="44">
+      <c r="AD58" s="41">
         <f t="shared" ref="AD58" si="67">-SUM(Z57:AF57)*$AD$44</f>
         <v>-1.0245366665735727E-6</v>
       </c>
-      <c r="AE58" s="44"/>
-      <c r="AF58" s="44"/>
-      <c r="AG58" s="44">
+      <c r="AE58" s="41"/>
+      <c r="AF58" s="41"/>
+      <c r="AG58" s="41">
         <f t="shared" ref="AG58" si="68">-SUM(AG57)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH58" s="44"/>
-      <c r="AI58" s="44"/>
+      <c r="AH58" s="41"/>
+      <c r="AI58" s="41"/>
       <c r="AJ58" s="33"/>
       <c r="AK58" s="37"/>
       <c r="AL58" s="37"/>
@@ -3617,44 +3230,44 @@
         <v>46</v>
       </c>
       <c r="O59" s="23"/>
-      <c r="P59" s="43">
+      <c r="P59" s="40">
         <f t="shared" ref="P59" si="69">0.5*S58</f>
         <v>3.4151222219119085E-7</v>
       </c>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43">
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40">
         <f t="shared" ref="S59" si="70">0.5*P58</f>
         <v>0</v>
       </c>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
       <c r="V59" s="30"/>
-      <c r="W59" s="43">
+      <c r="W59" s="40">
         <f t="shared" ref="W59" si="71">0.5*Z58</f>
         <v>-8.5378055547797727E-8</v>
       </c>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43">
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40">
         <f t="shared" ref="Z59" si="72">0.5*W58</f>
         <v>5.6918703698531809E-8</v>
       </c>
-      <c r="AA59" s="43"/>
-      <c r="AB59" s="43"/>
+      <c r="AA59" s="40"/>
+      <c r="AB59" s="40"/>
       <c r="AC59" s="30"/>
-      <c r="AD59" s="43">
+      <c r="AD59" s="40">
         <f t="shared" ref="AD59" si="73">0.5*AG58</f>
         <v>0</v>
       </c>
-      <c r="AE59" s="43"/>
-      <c r="AF59" s="43"/>
-      <c r="AG59" s="43">
+      <c r="AE59" s="40"/>
+      <c r="AF59" s="40"/>
+      <c r="AG59" s="40">
         <f t="shared" ref="AG59" si="74">0.5*AD58</f>
         <v>-5.1226833328678636E-7</v>
       </c>
-      <c r="AH59" s="43"/>
-      <c r="AI59" s="43"/>
+      <c r="AH59" s="40"/>
+      <c r="AI59" s="40"/>
       <c r="AJ59" s="34"/>
       <c r="AK59" s="37"/>
       <c r="AL59" s="37"/>
@@ -3665,44 +3278,44 @@
         <v>47</v>
       </c>
       <c r="O60" s="22"/>
-      <c r="P60" s="44">
+      <c r="P60" s="41">
         <f t="shared" ref="P60" si="75">-SUM(P59)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="44">
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41">
         <f t="shared" ref="S60" si="76">-SUM(S59:Y59)*$S$44</f>
         <v>7.3181190469540908E-8</v>
       </c>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
       <c r="V60" s="29"/>
-      <c r="W60" s="44">
+      <c r="W60" s="41">
         <f t="shared" ref="W60" si="77">-SUM(S59:Y59)*$W$44</f>
         <v>1.2196865078256818E-8</v>
       </c>
-      <c r="X60" s="44"/>
-      <c r="Y60" s="44"/>
-      <c r="Z60" s="44">
+      <c r="X60" s="41"/>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="41">
         <f t="shared" ref="Z60" si="78">-SUM(Z59:AF59)*$Z$44</f>
         <v>-8.1312433855045432E-9</v>
       </c>
-      <c r="AA60" s="44"/>
-      <c r="AB60" s="44"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="41"/>
       <c r="AC60" s="29"/>
-      <c r="AD60" s="44">
+      <c r="AD60" s="41">
         <f t="shared" ref="AD60" si="79">-SUM(Z59:AF59)*$AD$44</f>
         <v>-4.8787460313027259E-8</v>
       </c>
-      <c r="AE60" s="44"/>
-      <c r="AF60" s="44"/>
-      <c r="AG60" s="44">
+      <c r="AE60" s="41"/>
+      <c r="AF60" s="41"/>
+      <c r="AG60" s="41">
         <f t="shared" ref="AG60" si="80">-SUM(AG59)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH60" s="44"/>
-      <c r="AI60" s="44"/>
+      <c r="AH60" s="41"/>
+      <c r="AI60" s="41"/>
       <c r="AJ60" s="33"/>
       <c r="AK60" s="37"/>
       <c r="AL60" s="37"/>
@@ -3713,44 +3326,44 @@
         <v>48</v>
       </c>
       <c r="O61" s="23"/>
-      <c r="P61" s="43">
+      <c r="P61" s="40">
         <f t="shared" ref="P61" si="81">0.5*S60</f>
         <v>3.6590595234770454E-8</v>
       </c>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43">
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40">
         <f t="shared" ref="S61" si="82">0.5*P60</f>
         <v>0</v>
       </c>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
       <c r="V61" s="30"/>
-      <c r="W61" s="43">
+      <c r="W61" s="40">
         <f t="shared" ref="W61" si="83">0.5*Z60</f>
         <v>-4.0656216927522716E-9</v>
       </c>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="43"/>
-      <c r="Z61" s="43">
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40">
         <f t="shared" ref="Z61" si="84">0.5*W60</f>
         <v>6.098432539128409E-9</v>
       </c>
-      <c r="AA61" s="43"/>
-      <c r="AB61" s="43"/>
+      <c r="AA61" s="40"/>
+      <c r="AB61" s="40"/>
       <c r="AC61" s="30"/>
-      <c r="AD61" s="43">
+      <c r="AD61" s="40">
         <f t="shared" ref="AD61" si="85">0.5*AG60</f>
         <v>0</v>
       </c>
-      <c r="AE61" s="43"/>
-      <c r="AF61" s="43"/>
-      <c r="AG61" s="43">
+      <c r="AE61" s="40"/>
+      <c r="AF61" s="40"/>
+      <c r="AG61" s="40">
         <f t="shared" ref="AG61" si="86">0.5*AD60</f>
         <v>-2.439373015651363E-8</v>
       </c>
-      <c r="AH61" s="43"/>
-      <c r="AI61" s="43"/>
+      <c r="AH61" s="40"/>
+      <c r="AI61" s="40"/>
       <c r="AJ61" s="34"/>
       <c r="AK61" s="37"/>
       <c r="AL61" s="37"/>
@@ -3761,44 +3374,44 @@
         <v>49</v>
       </c>
       <c r="O62" s="22"/>
-      <c r="P62" s="44">
+      <c r="P62" s="41">
         <f t="shared" ref="P62" si="87">-SUM(P61)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="44">
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41">
         <f t="shared" ref="S62" si="88">-SUM(S61:Y61)*$S$44</f>
         <v>3.4848185937876614E-9</v>
       </c>
-      <c r="T62" s="44"/>
-      <c r="U62" s="44"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
       <c r="V62" s="29"/>
-      <c r="W62" s="44">
+      <c r="W62" s="41">
         <f t="shared" ref="W62" si="89">-SUM(S61:Y61)*$W$44</f>
         <v>5.8080309896461023E-10</v>
       </c>
-      <c r="X62" s="44"/>
-      <c r="Y62" s="44"/>
-      <c r="Z62" s="44">
+      <c r="X62" s="41"/>
+      <c r="Y62" s="41"/>
+      <c r="Z62" s="41">
         <f t="shared" ref="Z62" si="90">-SUM(Z61:AF61)*$Z$44</f>
         <v>-8.7120464844691555E-10</v>
       </c>
-      <c r="AA62" s="44"/>
-      <c r="AB62" s="44"/>
+      <c r="AA62" s="41"/>
+      <c r="AB62" s="41"/>
       <c r="AC62" s="29"/>
-      <c r="AD62" s="44">
+      <c r="AD62" s="41">
         <f t="shared" ref="AD62" si="91">-SUM(Z61:AF61)*$AD$44</f>
         <v>-5.2272278906814929E-9</v>
       </c>
-      <c r="AE62" s="44"/>
-      <c r="AF62" s="44"/>
-      <c r="AG62" s="44">
+      <c r="AE62" s="41"/>
+      <c r="AF62" s="41"/>
+      <c r="AG62" s="41">
         <f t="shared" ref="AG62" si="92">-SUM(AG61)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH62" s="44"/>
-      <c r="AI62" s="44"/>
+      <c r="AH62" s="41"/>
+      <c r="AI62" s="41"/>
       <c r="AJ62" s="33"/>
       <c r="AK62" s="37"/>
       <c r="AL62" s="37"/>
@@ -3809,44 +3422,44 @@
         <v>50</v>
       </c>
       <c r="O63" s="23"/>
-      <c r="P63" s="43">
+      <c r="P63" s="40">
         <f t="shared" ref="P63" si="93">0.5*S62</f>
         <v>1.7424092968938307E-9</v>
       </c>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43">
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40">
         <f t="shared" ref="S63" si="94">0.5*P62</f>
         <v>0</v>
       </c>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
       <c r="V63" s="30"/>
-      <c r="W63" s="43">
+      <c r="W63" s="40">
         <f t="shared" ref="W63" si="95">0.5*Z62</f>
         <v>-4.3560232422345777E-10</v>
       </c>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="43"/>
-      <c r="Z63" s="43">
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40">
         <f t="shared" ref="Z63" si="96">0.5*W62</f>
         <v>2.9040154948230511E-10</v>
       </c>
-      <c r="AA63" s="43"/>
-      <c r="AB63" s="43"/>
+      <c r="AA63" s="40"/>
+      <c r="AB63" s="40"/>
       <c r="AC63" s="30"/>
-      <c r="AD63" s="43">
+      <c r="AD63" s="40">
         <f t="shared" ref="AD63" si="97">0.5*AG62</f>
         <v>0</v>
       </c>
-      <c r="AE63" s="43"/>
-      <c r="AF63" s="43"/>
-      <c r="AG63" s="43">
+      <c r="AE63" s="40"/>
+      <c r="AF63" s="40"/>
+      <c r="AG63" s="40">
         <f t="shared" ref="AG63" si="98">0.5*AD62</f>
         <v>-2.6136139453407464E-9</v>
       </c>
-      <c r="AH63" s="43"/>
-      <c r="AI63" s="43"/>
+      <c r="AH63" s="40"/>
+      <c r="AI63" s="40"/>
       <c r="AJ63" s="34"/>
       <c r="AK63" s="37"/>
       <c r="AL63" s="37"/>
@@ -3856,44 +3469,44 @@
       <c r="L64" t="s">
         <v>51</v>
       </c>
-      <c r="P64" s="45">
+      <c r="P64" s="39">
         <f t="shared" ref="P64" si="99">-SUM(P63)*$P$44</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="45"/>
-      <c r="S64" s="45">
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39">
         <f t="shared" ref="S64" si="100">-SUM(S63:Y63)*$S$44</f>
         <v>3.733734207629638E-10</v>
       </c>
-      <c r="T64" s="45"/>
-      <c r="U64" s="45"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
       <c r="V64" s="18"/>
-      <c r="W64" s="45">
+      <c r="W64" s="39">
         <f t="shared" ref="W64" si="101">-SUM(S63:Y63)*$W$44</f>
         <v>6.2228903460493962E-11</v>
       </c>
-      <c r="X64" s="45"/>
-      <c r="Y64" s="45"/>
-      <c r="Z64" s="45">
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39">
         <f t="shared" ref="Z64" si="102">-SUM(Z63:AF63)*$Z$44</f>
         <v>-4.1485935640329297E-11</v>
       </c>
-      <c r="AA64" s="45"/>
-      <c r="AB64" s="45"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
       <c r="AC64" s="18"/>
-      <c r="AD64" s="45">
+      <c r="AD64" s="39">
         <f t="shared" ref="AD64" si="103">-SUM(Z63:AF63)*$AD$44</f>
         <v>-2.489156138419758E-10</v>
       </c>
-      <c r="AE64" s="45"/>
-      <c r="AF64" s="45"/>
-      <c r="AG64" s="45">
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39">
         <f t="shared" ref="AG64" si="104">-SUM(AG63)*$AG$44</f>
         <v>0</v>
       </c>
-      <c r="AH64" s="45"/>
-      <c r="AI64" s="45"/>
+      <c r="AH64" s="39"/>
+      <c r="AI64" s="39"/>
       <c r="AJ64" s="18"/>
       <c r="AK64" s="37"/>
       <c r="AL64" s="37"/>
@@ -3903,44 +3516,44 @@
       <c r="L65" t="s">
         <v>52</v>
       </c>
-      <c r="P65" s="40">
+      <c r="P65" s="38">
         <f>SUM(P45:R64)</f>
         <v>2.8615384613418815</v>
       </c>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40">
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38">
         <f>SUM(S45:U64)</f>
         <v>5.7230769230571363</v>
       </c>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
       <c r="V65" s="15"/>
-      <c r="W65" s="40">
+      <c r="W65" s="38">
         <f>SUM(W45:Y64)</f>
         <v>-5.7230769230571381</v>
       </c>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40">
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38">
         <f>SUM(Z45:AB64)</f>
         <v>8.123076923048842</v>
       </c>
-      <c r="AA65" s="40"/>
-      <c r="AB65" s="40"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
       <c r="AC65" s="15"/>
-      <c r="AD65" s="40">
+      <c r="AD65" s="38">
         <f>SUM(AD45:AF64)</f>
         <v>-8.1230769230488402</v>
       </c>
-      <c r="AE65" s="40"/>
-      <c r="AF65" s="40"/>
-      <c r="AG65" s="40">
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38">
         <f>SUM(AG45:AI64)</f>
         <v>-4.0615384613999623</v>
       </c>
-      <c r="AH65" s="40"/>
-      <c r="AI65" s="40"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="38"/>
       <c r="AJ65" s="18"/>
       <c r="AK65" s="37"/>
       <c r="AL65" s="37"/>
@@ -4040,175 +3653,102 @@
     </row>
   </sheetData>
   <mergeCells count="289">
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AG69:AI69"/>
-    <mergeCell ref="AK69:AM69"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AG68:AI68"/>
-    <mergeCell ref="AK68:AM68"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AI67"/>
-    <mergeCell ref="AK67:AM67"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AG66:AI66"/>
-    <mergeCell ref="AK66:AM66"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AG65:AI65"/>
-    <mergeCell ref="AK65:AM65"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AG64:AI64"/>
-    <mergeCell ref="AK64:AM64"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="W63:Y63"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG63:AI63"/>
-    <mergeCell ref="AK63:AM63"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="W62:Y62"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AG62:AI62"/>
-    <mergeCell ref="AK62:AM62"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AG61:AI61"/>
-    <mergeCell ref="AK61:AM61"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="W60:Y60"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AG60:AI60"/>
-    <mergeCell ref="AK60:AM60"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AG59:AI59"/>
-    <mergeCell ref="AK59:AM59"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="W58:Y58"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AG58:AI58"/>
-    <mergeCell ref="AK58:AM58"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="W57:Y57"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AG57:AI57"/>
-    <mergeCell ref="AK57:AM57"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="W56:Y56"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AG56:AI56"/>
-    <mergeCell ref="AK56:AM56"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="W55:Y55"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AI55"/>
-    <mergeCell ref="AK55:AM55"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AG54:AI54"/>
-    <mergeCell ref="AK54:AM54"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AG53:AI53"/>
-    <mergeCell ref="AK53:AM53"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="W52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AG52:AI52"/>
-    <mergeCell ref="AK52:AM52"/>
-    <mergeCell ref="AK49:AM49"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AI48"/>
-    <mergeCell ref="AK48:AM48"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="W51:Y51"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AG51:AI51"/>
-    <mergeCell ref="AK51:AM51"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AG50:AI50"/>
-    <mergeCell ref="AK50:AM50"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AG47:AI47"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AG46:AI46"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AG49:AI49"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="CP10:CR10"/>
-    <mergeCell ref="CM9:CO9"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BW10"/>
-    <mergeCell ref="BX10:BZ10"/>
-    <mergeCell ref="CA10:CC10"/>
-    <mergeCell ref="CD10:CF10"/>
-    <mergeCell ref="CG10:CI10"/>
-    <mergeCell ref="CJ10:CL10"/>
-    <mergeCell ref="CM10:CO10"/>
-    <mergeCell ref="CG9:CI9"/>
-    <mergeCell ref="CJ9:CL9"/>
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="BU8:BW8"/>
-    <mergeCell ref="BX8:BZ8"/>
-    <mergeCell ref="CA8:CC8"/>
-    <mergeCell ref="CD8:CF8"/>
-    <mergeCell ref="CG8:CI8"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="AK28:AP28"/>
-    <mergeCell ref="AK27:AP27"/>
-    <mergeCell ref="AK30:AP30"/>
-    <mergeCell ref="AD31:AI31"/>
-    <mergeCell ref="AK31:AP31"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="AG40:AI40"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="L30:N31"/>
+    <mergeCell ref="K33:N34"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="S42:Y42"/>
+    <mergeCell ref="Z42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AG44:AI44"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="AG45:AI45"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P38:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AG36:AI36"/>
+    <mergeCell ref="AD38:AF39"/>
+    <mergeCell ref="Z38:AB39"/>
+    <mergeCell ref="W38:Y39"/>
+    <mergeCell ref="S38:U39"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AK37:AP37"/>
+    <mergeCell ref="W37:AB37"/>
+    <mergeCell ref="AD37:AI37"/>
+    <mergeCell ref="P35:U35"/>
+    <mergeCell ref="P37:U37"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="AG38:AI39"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Q10:W10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="P30:U30"/>
+    <mergeCell ref="W30:AB30"/>
+    <mergeCell ref="P31:U31"/>
+    <mergeCell ref="W31:AB31"/>
+    <mergeCell ref="P27:U27"/>
+    <mergeCell ref="W27:AB27"/>
+    <mergeCell ref="P28:U28"/>
+    <mergeCell ref="W28:AB28"/>
+    <mergeCell ref="P26:U26"/>
+    <mergeCell ref="W26:AB26"/>
+    <mergeCell ref="O25:AJ25"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AD26:AI26"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="P33:R33"/>
     <mergeCell ref="P34:R34"/>
     <mergeCell ref="AG33:AI33"/>
     <mergeCell ref="AG34:AI34"/>
@@ -4233,105 +3773,178 @@
     <mergeCell ref="BX9:BZ9"/>
     <mergeCell ref="CA9:CC9"/>
     <mergeCell ref="CD9:CF9"/>
-    <mergeCell ref="AG38:AI39"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Q10:W10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="P30:U30"/>
-    <mergeCell ref="W30:AB30"/>
-    <mergeCell ref="P31:U31"/>
-    <mergeCell ref="W31:AB31"/>
-    <mergeCell ref="P27:U27"/>
-    <mergeCell ref="W27:AB27"/>
-    <mergeCell ref="P28:U28"/>
-    <mergeCell ref="W28:AB28"/>
-    <mergeCell ref="P26:U26"/>
-    <mergeCell ref="W26:AB26"/>
-    <mergeCell ref="O25:AJ25"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AD26:AI26"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="AG45:AI45"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P38:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AG36:AI36"/>
-    <mergeCell ref="AD38:AF39"/>
-    <mergeCell ref="Z38:AB39"/>
-    <mergeCell ref="W38:Y39"/>
-    <mergeCell ref="S38:U39"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AK37:AP37"/>
-    <mergeCell ref="W37:AB37"/>
-    <mergeCell ref="AD37:AI37"/>
-    <mergeCell ref="P35:U35"/>
-    <mergeCell ref="P37:U37"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AG44:AI44"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="AG40:AI40"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="L30:N31"/>
-    <mergeCell ref="K33:N34"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S42:Y42"/>
-    <mergeCell ref="Z42:AF42"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="BU8:BW8"/>
+    <mergeCell ref="BX8:BZ8"/>
+    <mergeCell ref="CA8:CC8"/>
+    <mergeCell ref="CD8:CF8"/>
+    <mergeCell ref="CG8:CI8"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="AK28:AP28"/>
+    <mergeCell ref="AK27:AP27"/>
+    <mergeCell ref="AK30:AP30"/>
+    <mergeCell ref="AD31:AI31"/>
+    <mergeCell ref="AK31:AP31"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="CP10:CR10"/>
+    <mergeCell ref="CM9:CO9"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BW10"/>
+    <mergeCell ref="BX10:BZ10"/>
+    <mergeCell ref="CA10:CC10"/>
+    <mergeCell ref="CD10:CF10"/>
+    <mergeCell ref="CG10:CI10"/>
+    <mergeCell ref="CJ10:CL10"/>
+    <mergeCell ref="CM10:CO10"/>
+    <mergeCell ref="CG9:CI9"/>
+    <mergeCell ref="CJ9:CL9"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AG47:AI47"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AG46:AI46"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AG49:AI49"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="AK49:AM49"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AI48"/>
+    <mergeCell ref="AK48:AM48"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="W51:Y51"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AG51:AI51"/>
+    <mergeCell ref="AK51:AM51"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="W50:Y50"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AG50:AI50"/>
+    <mergeCell ref="AK50:AM50"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AG53:AI53"/>
+    <mergeCell ref="AK53:AM53"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="W52:Y52"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AG52:AI52"/>
+    <mergeCell ref="AK52:AM52"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AI55"/>
+    <mergeCell ref="AK55:AM55"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AG54:AI54"/>
+    <mergeCell ref="AK54:AM54"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="W57:Y57"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AG57:AI57"/>
+    <mergeCell ref="AK57:AM57"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="W56:Y56"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AG56:AI56"/>
+    <mergeCell ref="AK56:AM56"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AG59:AI59"/>
+    <mergeCell ref="AK59:AM59"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AG58:AI58"/>
+    <mergeCell ref="AK58:AM58"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AG61:AI61"/>
+    <mergeCell ref="AK61:AM61"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="W60:Y60"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AG60:AI60"/>
+    <mergeCell ref="AK60:AM60"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="W63:Y63"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG63:AI63"/>
+    <mergeCell ref="AK63:AM63"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="W62:Y62"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AG62:AI62"/>
+    <mergeCell ref="AK62:AM62"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AG65:AI65"/>
+    <mergeCell ref="AK65:AM65"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AG64:AI64"/>
+    <mergeCell ref="AK64:AM64"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AI67"/>
+    <mergeCell ref="AK67:AM67"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AG66:AI66"/>
+    <mergeCell ref="AK66:AM66"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AG69:AI69"/>
+    <mergeCell ref="AK69:AM69"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AG68:AI68"/>
+    <mergeCell ref="AK68:AM68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P30:AD30 AK30" xr:uid="{484F2383-4C7E-4DE7-B7A9-0A682ED1CB3C}">
       <formula1>$AG$8:$AG$9</formula1>
     </dataValidation>
